--- a/doc/04_DB定義書_川崎.java.xlsx
+++ b/doc/04_DB定義書_川崎.java.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\新しいフォルダー\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D1B9792-AF34-4E57-B170-913206405C3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4AA2D28-E949-4F6B-83C9-AD1C25C8E52A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6150" yWindow="105" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -1125,7 +1125,7 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -3179,7 +3179,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5175D722-0604-4366-A69E-371522E88E11}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -3321,7 +3323,7 @@
         <v>84</v>
       </c>
       <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
         <v>f_id int ,</v>
       </c>
     </row>
@@ -3329,27 +3331,17 @@
       <c r="A11" s="3">
         <v>2</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
       <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
         <v>f_date date  ,</v>
       </c>
     </row>
@@ -3358,17 +3350,15 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="3">
-        <v>15</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="8" t="s">
@@ -3376,10 +3366,10 @@
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L12" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
         <v>f_category varchar (15),</v>
       </c>
     </row>
@@ -3388,26 +3378,28 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E13" s="3">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="8"/>
+      <c r="H13" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L13" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
         <v>f_memo varchar (100),</v>
       </c>
     </row>
@@ -3416,26 +3408,26 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="3"/>
+        <v>44</v>
+      </c>
+      <c r="E14" s="3">
+        <v>100</v>
+      </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="8" t="s">
-        <v>39</v>
-      </c>
+      <c r="H14" s="8"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="L14" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
         <v xml:space="preserve">f_cost int </v>
       </c>
     </row>
@@ -3443,18 +3435,28 @@
       <c r="A15" s="3">
         <v>6</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
+      <c r="H15" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="L15" t="str">
-        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+      <c r="J15" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="L15" t="e">
+        <f>C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
@@ -3470,9 +3472,9 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
-      <c r="L16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+      <c r="L16" t="e">
+        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.15">
@@ -3489,7 +3491,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="L17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="L15:L29" si="0">C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>

--- a/doc/04_DB定義書_川崎.java.xlsx
+++ b/doc/04_DB定義書_川崎.java.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4AA2D28-E949-4F6B-83C9-AD1C25C8E52A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A610ABCE-7825-4B10-9EBD-2B76C4CA78C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3179,9 +3179,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5175D722-0604-4366-A69E-371522E88E11}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -3323,7 +3321,7 @@
         <v>84</v>
       </c>
       <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
         <v>f_id int ,</v>
       </c>
     </row>
@@ -3331,17 +3329,27 @@
       <c r="A11" s="3">
         <v>2</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
+      <c r="B11" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="L11" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
         <v>f_date date  ,</v>
       </c>
     </row>
@@ -3350,15 +3358,17 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E12" s="3"/>
+        <v>44</v>
+      </c>
+      <c r="E12" s="3">
+        <v>15</v>
+      </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="8" t="s">
@@ -3366,10 +3376,10 @@
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L12" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
         <v>f_category varchar (15),</v>
       </c>
     </row>
@@ -3378,28 +3388,26 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E13" s="3">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="8" t="s">
-        <v>39</v>
-      </c>
+      <c r="H13" s="8"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L13" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
         <v>f_memo varchar (100),</v>
       </c>
     </row>
@@ -3408,51 +3416,32 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="3">
-        <v>100</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="8"/>
+      <c r="H14" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="L14" t="str">
-        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
         <v xml:space="preserve">f_cost int </v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>6</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3" t="s">
-        <v>79</v>
       </c>
       <c r="L15" t="e">
         <f>C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -3491,7 +3480,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="L17" t="str">
-        <f t="shared" ref="L15:L29" si="0">C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
+        <f t="shared" ref="L17:L29" si="0">C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>

--- a/doc/04_DB定義書_川崎.java.xlsx
+++ b/doc/04_DB定義書_川崎.java.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A610ABCE-7825-4B10-9EBD-2B76C4CA78C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47DD6633-80F3-4966-8524-03B397C3DEDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="99">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -249,13 +249,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>固定費マスタ</t>
-    <rPh sb="0" eb="3">
-      <t>コテイヒ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>fixed</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -609,13 +602,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>登録してください</t>
-    <rPh sb="0" eb="2">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>暑がりか寒がりかどちらでもない</t>
     <rPh sb="0" eb="1">
       <t>アツ</t>
@@ -650,6 +636,61 @@
   </si>
   <si>
     <t>f_cost</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>貯金達成額</t>
+    <rPh sb="0" eb="5">
+      <t>チョキンタッセイガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目標金額と貯金できた金額の差額を登録</t>
+    <rPh sb="0" eb="2">
+      <t>モクヒョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キンガク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>チョキン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キンガク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サガク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザテーブル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スケジュールテーブル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変動費テーブル</t>
+    <rPh sb="0" eb="3">
+      <t>ヘンドウヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>固定費テーブル</t>
+    <rPh sb="0" eb="3">
+      <t>コテイヒ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -698,7 +739,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1125,7 +1166,9 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1201,7 +1244,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>29</v>
@@ -1218,7 +1261,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>26</v>
+        <v>96</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>31</v>
@@ -1235,16 +1278,16 @@
         <v>3</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>24</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
@@ -1252,16 +1295,16 @@
         <v>4</v>
       </c>
       <c r="C11" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>24</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
@@ -1518,7 +1561,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1535,7 +1580,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>21</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -1637,27 +1682,27 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
@@ -1669,13 +1714,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="D11" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="E11" s="3">
         <v>15</v>
@@ -1683,11 +1728,11 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -1699,13 +1744,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>46</v>
-      </c>
       <c r="D12" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E12" s="3">
         <v>15</v>
@@ -1713,11 +1758,11 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -1729,25 +1774,25 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>48</v>
-      </c>
       <c r="D13" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E13" s="3">
         <v>50</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="10" t="s">
-        <v>86</v>
-      </c>
+      <c r="H13" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="10"/>
       <c r="J13" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
@@ -1759,15 +1804,17 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>51</v>
-      </c>
       <c r="D14" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="3"/>
+        <v>37</v>
+      </c>
+      <c r="E14" s="3">
+        <v>7</v>
+      </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="8"/>
@@ -1775,11 +1822,11 @@
         <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>goal int ,</v>
+        <v>goal int (7),</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
@@ -1787,15 +1834,17 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="10" t="s">
-        <v>54</v>
-      </c>
       <c r="D15" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="3"/>
+        <v>94</v>
+      </c>
+      <c r="E15" s="3">
+        <v>2</v>
+      </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="8"/>
@@ -1803,11 +1852,11 @@
         <v>0</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L15" t="str">
-        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v>deadline int ,</v>
+        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
+        <v>deadline date (2),</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
@@ -1815,26 +1864,26 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>59</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="C16" s="10"/>
       <c r="D16" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" s="3"/>
+        <v>37</v>
+      </c>
+      <c r="E16" s="3">
+        <v>7</v>
+      </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
-      <c r="H16" s="8"/>
+      <c r="H16" s="3"/>
       <c r="I16" s="3">
         <v>0</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="L16" t="str">
-        <f t="shared" si="0"/>
+        <f>C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
         <v>salary int ,</v>
       </c>
     </row>
@@ -1843,47 +1892,57 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" s="3">
-        <v>7</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
-      <c r="H17" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="I17" s="3"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="3">
+        <v>0</v>
+      </c>
       <c r="J17" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="L17" t="str">
-        <f t="shared" si="0"/>
-        <v>constitution varchar (7)</v>
+        <v>59</v>
+      </c>
+      <c r="L17" t="e">
+        <f>C18&amp;" "&amp;D18&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>9</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
+      <c r="B18" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="3">
+        <v>7</v>
+      </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
+      <c r="H18" s="8" t="s">
+        <v>38</v>
+      </c>
       <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="L18" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+      <c r="J18" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="L18" t="e">
+        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.15">
@@ -1900,7 +1959,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="L19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="L15:L29" si="0">C19&amp;" "&amp;D19&amp;" "&amp;IF(E19&lt;&gt;"","("&amp;E19&amp;")","")&amp;IF(C20&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2116,7 +2175,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>26</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -2218,27 +2277,27 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
@@ -2250,23 +2309,23 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>62</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -2278,13 +2337,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E12" s="3">
         <v>15</v>
@@ -2292,11 +2351,11 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -2308,13 +2367,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E13" s="3">
         <v>100</v>
@@ -2324,7 +2383,7 @@
       <c r="H13" s="8"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
@@ -2651,7 +2710,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>28</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -2703,7 +2762,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -2753,27 +2812,27 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
@@ -2785,23 +2844,23 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>62</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -2813,13 +2872,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E12" s="3">
         <v>15</v>
@@ -2827,11 +2886,11 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -2843,13 +2902,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E13" s="3">
         <v>100</v>
@@ -2859,7 +2918,7 @@
       <c r="H13" s="8"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
@@ -2871,23 +2930,23 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
@@ -3179,7 +3238,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5175D722-0604-4366-A69E-371522E88E11}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -3196,7 +3255,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>32</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -3234,7 +3293,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -3248,7 +3307,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -3298,27 +3357,27 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
@@ -3330,23 +3389,23 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>62</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -3358,13 +3417,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E12" s="3">
         <v>15</v>
@@ -3372,11 +3431,11 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -3388,13 +3447,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E13" s="3">
         <v>100</v>
@@ -3404,7 +3463,7 @@
       <c r="H13" s="8"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
@@ -3416,23 +3475,23 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>

--- a/doc/04_DB定義書_川崎.java.xlsx
+++ b/doc/04_DB定義書_川崎.java.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\E-3\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47DD6633-80F3-4966-8524-03B397C3DEDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{673029C4-E461-4A65-871F-DD1E269B0B29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="100">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -691,6 +691,10 @@
     <rPh sb="0" eb="3">
       <t>コテイヒ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>savings</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1166,7 +1170,7 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -1561,7 +1565,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -1866,7 +1870,9 @@
       <c r="B16" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C16" s="10"/>
+      <c r="C16" s="10" t="s">
+        <v>99</v>
+      </c>
       <c r="D16" s="3" t="s">
         <v>37</v>
       </c>
@@ -1959,7 +1965,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="L19" t="str">
-        <f t="shared" ref="L15:L29" si="0">C19&amp;" "&amp;D19&amp;" "&amp;IF(E19&lt;&gt;"","("&amp;E19&amp;")","")&amp;IF(C20&lt;&gt;"",",","")</f>
+        <f t="shared" ref="L19:L29" si="0">C19&amp;" "&amp;D19&amp;" "&amp;IF(E19&lt;&gt;"","("&amp;E19&amp;")","")&amp;IF(C20&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>

--- a/doc/04_DB定義書_川崎.java.xlsx
+++ b/doc/04_DB定義書_川崎.java.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\E-3\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{673029C4-E461-4A65-871F-DD1E269B0B29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC57F9CB-2BD8-4CFC-B6F8-CC5E5B67838D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -371,30 +371,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>達成期間</t>
-    <rPh sb="0" eb="2">
-      <t>タッセイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>キカン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>deadline</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>達成までの期間を登録する</t>
-    <rPh sb="0" eb="2">
-      <t>タッセイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>キカン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>トウロク</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -695,6 +672,29 @@
   </si>
   <si>
     <t>savings</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>達成期限</t>
+    <rPh sb="0" eb="2">
+      <t>タッセイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>達成する期限を登録する</t>
+    <rPh sb="0" eb="2">
+      <t>タッセイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キゲン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1170,9 +1170,7 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1248,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>29</v>
@@ -1265,7 +1263,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>31</v>
@@ -1282,7 +1280,7 @@
         <v>3</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>33</v>
@@ -1299,7 +1297,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>32</v>
@@ -1565,9 +1563,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1584,7 +1580,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -1838,13 +1834,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="10" t="s">
-        <v>53</v>
-      </c>
       <c r="D15" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E15" s="3">
         <v>2</v>
@@ -1856,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="L15" t="str">
         <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
@@ -1868,10 +1864,10 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>37</v>
@@ -1886,7 +1882,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L16" t="str">
         <f>C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
@@ -1898,10 +1894,10 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>37</v>
@@ -1914,7 +1910,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L17" t="e">
         <f>C18&amp;" "&amp;D18&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -1926,10 +1922,10 @@
         <v>9</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>43</v>
@@ -1944,7 +1940,7 @@
       </c>
       <c r="I18" s="3"/>
       <c r="J18" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L18" t="e">
         <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
@@ -2181,7 +2177,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -2283,10 +2279,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>37</v>
@@ -2303,7 +2299,7 @@
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
@@ -2315,13 +2311,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -2331,7 +2327,7 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -2343,10 +2339,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>43</v>
@@ -2361,7 +2357,7 @@
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -2373,10 +2369,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>43</v>
@@ -2389,7 +2385,7 @@
       <c r="H13" s="8"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
@@ -2716,7 +2712,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -2768,7 +2764,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -2818,10 +2814,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>37</v>
@@ -2838,7 +2834,7 @@
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
@@ -2850,13 +2846,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -2866,7 +2862,7 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -2878,10 +2874,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>43</v>
@@ -2896,7 +2892,7 @@
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -2908,10 +2904,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>43</v>
@@ -2924,7 +2920,7 @@
       <c r="H13" s="8"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
@@ -2936,10 +2932,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>37</v>
@@ -2952,7 +2948,7 @@
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
@@ -3261,7 +3257,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -3299,7 +3295,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -3363,10 +3359,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>37</v>
@@ -3383,7 +3379,7 @@
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
@@ -3395,13 +3391,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -3411,7 +3407,7 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -3423,10 +3419,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>43</v>
@@ -3441,7 +3437,7 @@
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -3453,10 +3449,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>43</v>
@@ -3469,7 +3465,7 @@
       <c r="H13" s="8"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
@@ -3481,10 +3477,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>37</v>
@@ -3497,7 +3493,7 @@
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>

--- a/doc/04_DB定義書_川崎.java.xlsx
+++ b/doc/04_DB定義書_川崎.java.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC57F9CB-2BD8-4CFC-B6F8-CC5E5B67838D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E04B1655-D1A6-43E8-9F04-3546D80EEA32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -616,35 +616,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>貯金達成額</t>
-    <rPh sb="0" eb="5">
-      <t>チョキンタッセイガク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>目標金額と貯金できた金額の差額を登録</t>
-    <rPh sb="0" eb="2">
-      <t>モクヒョウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>キンガク</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>チョキン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>キンガク</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>サガク</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>date</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -694,6 +665,48 @@
     </rPh>
     <rPh sb="7" eb="9">
       <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今月の残額</t>
+    <rPh sb="0" eb="2">
+      <t>コンゲツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ザンガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目標金額と貯金できた金額の差額を登録
+毎月一日に更新</t>
+    <rPh sb="0" eb="2">
+      <t>モクヒョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キンガク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>チョキン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キンガク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サガク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>マイツキ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ツイタチ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>コウシン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -790,7 +803,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -826,6 +839,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1246,7 +1262,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>29</v>
@@ -1263,7 +1279,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>31</v>
@@ -1280,7 +1296,7 @@
         <v>3</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>33</v>
@@ -1297,7 +1313,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>32</v>
@@ -1580,7 +1596,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -1834,13 +1850,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>52</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E15" s="3">
         <v>2</v>
@@ -1852,22 +1868,22 @@
         <v>0</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L15" t="str">
         <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
         <v>deadline date (2),</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>37</v>
@@ -1881,8 +1897,8 @@
       <c r="I16" s="3">
         <v>0</v>
       </c>
-      <c r="J16" s="3" t="s">
-        <v>91</v>
+      <c r="J16" s="12" t="s">
+        <v>99</v>
       </c>
       <c r="L16" t="str">
         <f>C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
@@ -2177,7 +2193,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -2712,7 +2728,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -3257,7 +3273,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">

--- a/doc/04_DB定義書_川崎.java.xlsx
+++ b/doc/04_DB定義書_川崎.java.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\E-3\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E04B1655-D1A6-43E8-9F04-3546D80EEA32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99923CD8-A49D-4835-820F-C00ECDB4385F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="100">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -1186,7 +1186,7 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="D4" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2176,7 +2176,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30B7FF52-C067-4131-88F9-95B10A9733CD}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2310,9 +2312,7 @@
       <c r="G10" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H10" s="8" t="s">
-        <v>38</v>
-      </c>
+      <c r="H10" s="8"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
         <v>61</v>
@@ -2711,7 +2711,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40294ECB-33F6-49A1-95DB-03733D7C9F48}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2845,9 +2847,7 @@
       <c r="G10" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H10" s="8" t="s">
-        <v>38</v>
-      </c>
+      <c r="H10" s="8"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
         <v>77</v>
@@ -3256,7 +3256,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5175D722-0604-4366-A69E-371522E88E11}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -3390,9 +3392,7 @@
       <c r="G10" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H10" s="8" t="s">
-        <v>38</v>
-      </c>
+      <c r="H10" s="8"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
         <v>81</v>
